--- a/hz-back/src/main/resources/excel/report_30.xlsx
+++ b/hz-back/src/main/resources/excel/report_30.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A2CD4-D4D2-4B66-8F34-35907ACE21DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +29,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一级支行</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>贷款金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,19 +70,23 @@
   </si>
   <si>
     <t>单位：万元</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款机构</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,17 +234,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -252,11 +253,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,7 +307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +339,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +391,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,33 +584,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.8">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -575,13 +620,13 @@
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -591,24 +636,24 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" ht="14.4" customHeight="1">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="21"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
@@ -617,18 +662,18 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="20"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -637,21 +682,21 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>1</v>
@@ -665,7 +710,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -681,7 +726,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -697,7 +742,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -713,7 +758,7 @@
       <c r="M8" s="9"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6">
+    <row r="9" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="11"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -729,7 +774,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="1:14" ht="15.6">
+    <row r="10" spans="1:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -745,7 +790,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -761,7 +806,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -777,7 +822,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -793,7 +838,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -809,7 +854,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -825,7 +870,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="10"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -841,7 +886,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -857,7 +902,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -873,7 +918,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -889,7 +934,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -905,7 +950,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -921,7 +966,7 @@
       <c r="M21" s="9"/>
       <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -937,22 +982,22 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="G24" s="4"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="G25" s="4"/>
       <c r="J25" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -961,12 +1006,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -975,12 +1020,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hz-back/src/main/resources/excel/report_30.xlsx
+++ b/hz-back/src/main/resources/excel/report_30.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A2CD4-D4D2-4B66-8F34-35907ACE21DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7158334-9B5B-48EF-BBBD-9F1449A8CA19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,54 +17,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>填报单位： 惠州农商行</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>逾期台帐统计表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷款金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贷款余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一般贷款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖欠本金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖欠利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOAN_AMOUNT</t>
-  </si>
-  <si>
-    <t>LOAN_BALANCE</t>
-  </si>
-  <si>
-    <t>UNPD_PRIN_BAL</t>
-  </si>
-  <si>
-    <t>DELAY_INT_CUMU</t>
-  </si>
-  <si>
     <t>$MAIN_BR_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +35,46 @@
   </si>
   <si>
     <t>贷款机构</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thirtyToSixty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sixtyToNinety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ninety</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期30天内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期30-60天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期60-90天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期90天以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常类贷款逾期统计表</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,6 +185,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -193,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,9 +248,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -237,14 +261,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,7 +618,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,22 +633,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -626,7 +656,7 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
@@ -638,68 +668,66 @@
     </row>
     <row r="3" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
-      <c r="D4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5"/>
@@ -991,13 +1019,14 @@
       <c r="J25" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hz-back/src/main/resources/excel/report_30.xlsx
+++ b/hz-back/src/main/resources/excel/report_30.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7158334-9B5B-48EF-BBBD-9F1449A8CA19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FB8958-A20F-452D-8484-4A2ED311C945}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,26 +38,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>thirty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thirtyToSixty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sixtyToNinety</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ninety</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>逾期30天内</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +56,26 @@
   <si>
     <t>正常类贷款逾期统计表</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>THIRTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THIRTY_TO_SIXTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIXTY_TO_NINETY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NINETY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -634,7 +634,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -671,16 +671,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>1</v>
@@ -715,19 +715,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5"/>
